--- a/data/outputs/management_elsevier/89.xlsx
+++ b/data/outputs/management_elsevier/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS155"/>
+  <dimension ref="A1:BU155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -909,6 +919,12 @@
           <t>2-s2.0-84943552141</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>732</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1128,6 +1144,12 @@
           <t>2-s2.0-84943581284</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>7568</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1373,12 @@
           <t>2-s2.0-84943587235</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>4965</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1570,6 +1598,12 @@
           <t>2-s2.0-84943584530</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>6361</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1781,6 +1815,12 @@
           <t>2-s2.0-84943586799</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>6645</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84943587677</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>4147</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2219,6 +2265,12 @@
           <t>2-s2.0-84943581480</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2738</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2440,6 +2492,12 @@
           <t>2-s2.0-84943572353</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2361</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2659,6 +2717,12 @@
           <t>2-s2.0-84943580126</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>4748</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2873,6 +2937,12 @@
         <is>
           <t>2-s2.0-84943582682</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3083,6 +3153,12 @@
           <t>2-s2.0-84943530773</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2598</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3298,6 +3374,12 @@
           <t>2-s2.0-84943581352</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3512,6 +3594,12 @@
         <is>
           <t>2-s2.0-84943580685</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>7521</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3720,6 +3808,12 @@
           <t>2-s2.0-84943580556</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3172</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3941,6 +4035,12 @@
           <t>2-s2.0-84943519641</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>4405</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4156,6 +4256,12 @@
           <t>2-s2.0-84943584181</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>9826</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4371,6 +4477,12 @@
           <t>2-s2.0-84943587269</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>4561</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4584,6 +4696,12 @@
           <t>2-s2.0-84943586734</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>9824</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4795,6 +4913,12 @@
           <t>2-s2.0-84943581426</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3725</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5023,6 +5147,12 @@
         <is>
           <t>2-s2.0-84943582103</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>3975</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -5231,6 +5361,12 @@
           <t>2-s2.0-84940438778</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>5586</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5438,6 +5574,12 @@
           <t>2-s2.0-84940439147</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2123</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5660,6 +5802,12 @@
         <is>
           <t>2-s2.0-85032069241</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>3367</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -5868,6 +6016,12 @@
           <t>2-s2.0-84940435437</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>7232</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6079,6 +6233,12 @@
           <t>2-s2.0-84940437942</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>6933</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6302,6 +6462,12 @@
           <t>2-s2.0-84940440279</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>21486</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6517,6 +6683,12 @@
           <t>2-s2.0-84940438392</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4654</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6734,6 +6906,12 @@
           <t>2-s2.0-84940437133</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>5080</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6944,6 +7122,12 @@
         <is>
           <t>2-s2.0-84940438848</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>3379</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -7152,6 +7336,12 @@
           <t>2-s2.0-84940436028</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1835</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7367,6 +7557,12 @@
           <t>2-s2.0-84940210386</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1727</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7586,6 +7782,12 @@
           <t>2-s2.0-84940435160</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>4764</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7808,6 +8010,12 @@
         <is>
           <t>2-s2.0-84940439145</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>4162</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -8016,6 +8224,12 @@
           <t>2-s2.0-84940439313</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2298</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8239,6 +8453,12 @@
           <t>2-s2.0-84940437483</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>5659</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8460,6 +8680,12 @@
           <t>2-s2.0-84940439561</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3922</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8682,6 +8908,12 @@
         <is>
           <t>2-s2.0-84940435378</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>8914</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
@@ -8874,6 +9106,12 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9081,6 +9319,12 @@
           <t>2-s2.0-84930752918</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>8984</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9295,6 +9539,12 @@
         <is>
           <t>2-s2.0-84930753161</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>4649</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -9499,6 +9749,12 @@
           <t>2-s2.0-84930758086</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>7753</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9722,6 +9978,12 @@
           <t>2-s2.0-84930757310</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>20735</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9933,6 +10195,12 @@
           <t>2-s2.0-84930759401</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3948</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10148,6 +10416,12 @@
           <t>2-s2.0-84930759391</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>27688</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10370,6 +10644,12 @@
         <is>
           <t>2-s2.0-84930762229</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>8892</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="47">
@@ -10570,6 +10850,12 @@
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10790,6 +11076,12 @@
         <is>
           <t>2-s2.0-84929804224</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>13279</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -10996,6 +11288,12 @@
           <t>2-s2.0-84930762303</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1871</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11219,6 +11517,12 @@
           <t>2-s2.0-84930766425</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3194</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11430,6 +11734,12 @@
           <t>2-s2.0-84930759753</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2857</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11647,6 +11957,12 @@
           <t>2-s2.0-84930766931</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>5767</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11864,6 +12180,12 @@
           <t>2-s2.0-84930752723</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3996</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12078,6 +12400,12 @@
         <is>
           <t>2-s2.0-84930757791</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>4671</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -12286,6 +12614,12 @@
           <t>2-s2.0-84930759666</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2980</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12500,6 +12834,12 @@
         <is>
           <t>2-s2.0-84930763680</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>3057</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -12708,6 +13048,12 @@
           <t>2-s2.0-84930766123</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>5712</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12916,6 +13262,12 @@
         <is>
           <t>2-s2.0-84929512251</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>3107</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -13126,6 +13478,12 @@
           <t>2-s2.0-84929515942</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2457</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13338,6 +13696,12 @@
         <is>
           <t>2-s2.0-84929510851</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>7253</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -13546,6 +13910,12 @@
           <t>2-s2.0-84929511873</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3974</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13760,6 +14130,12 @@
         <is>
           <t>2-s2.0-84929304059</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>6792</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -13968,6 +14344,12 @@
           <t>2-s2.0-84929515374</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>3058</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14190,6 +14572,12 @@
         <is>
           <t>2-s2.0-84929515573</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>2663</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -14398,6 +14786,12 @@
           <t>2-s2.0-84929519791</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>2643</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14605,6 +14999,12 @@
           <t>2-s2.0-84929509348</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>6344</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14813,6 +15213,12 @@
         <is>
           <t>2-s2.0-84929503405</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>15464</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -14997,6 +15403,12 @@
           <t>2-s2.0-84929507960</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15214,6 +15626,12 @@
           <t>2-s2.0-84929515163</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>10683</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15432,6 +15850,12 @@
         <is>
           <t>2-s2.0-84929517341</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>2406</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -15642,6 +16066,12 @@
           <t>2-s2.0-84929507064</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>34080</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15871,6 +16301,12 @@
           <t>2-s2.0-84929505369</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>7851</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16088,6 +16524,12 @@
           <t>2-s2.0-84929514621</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>8097</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16302,6 +16744,12 @@
         <is>
           <t>2-s2.0-84929504730</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>11683</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -16509,6 +16957,12 @@
         <is>
           <t>2-s2.0-84929502373</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>3603</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -16691,6 +17145,12 @@
         <v>3850007</v>
       </c>
       <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16896,6 +17356,12 @@
           <t>2-s2.0-84925260203</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3603</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17106,6 +17572,12 @@
         <is>
           <t>2-s2.0-84925236248</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>6754</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -17314,6 +17786,12 @@
           <t>2-s2.0-84925271661</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>3893</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17531,6 +18009,12 @@
           <t>2-s2.0-84925255264</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>5310</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17752,6 +18236,12 @@
           <t>2-s2.0-84925068114</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>12936</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17971,6 +18461,12 @@
           <t>2-s2.0-84925241786</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>4311</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18186,6 +18682,12 @@
           <t>2-s2.0-84925111153</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>6616</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18401,6 +18903,12 @@
           <t>2-s2.0-84925266239</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>3984</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18623,6 +19131,12 @@
         <is>
           <t>2-s2.0-84925044396</t>
         </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>3631</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -18835,6 +19349,12 @@
           <t>2-s2.0-84925148709</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1891</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19056,6 +19576,12 @@
           <t>2-s2.0-84925265383</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>4744</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19271,6 +19797,12 @@
           <t>2-s2.0-84925115484</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>4027</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19482,6 +20014,12 @@
           <t>2-s2.0-84925147537</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>5580</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19701,6 +20239,12 @@
           <t>2-s2.0-84925064792</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>2497</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19924,6 +20468,12 @@
           <t>2-s2.0-84925061141</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>24444</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20147,6 +20697,12 @@
           <t>2-s2.0-84925047709</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>9376</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20362,6 +20918,12 @@
           <t>2-s2.0-84925242758</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>4127</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20585,6 +21147,12 @@
           <t>2-s2.0-84925270722</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>5280</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20800,6 +21368,12 @@
           <t>2-s2.0-84925202310</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>9141</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21011,6 +21585,12 @@
       <c r="BQ96" t="inlineStr"/>
       <c r="BR96" t="inlineStr"/>
       <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21206,6 +21786,12 @@
           <t>2-s2.0-84922595693</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1753</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21429,6 +22015,12 @@
           <t>2-s2.0-84922604184</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>4206</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21652,6 +22244,12 @@
           <t>2-s2.0-84922670388</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>5629</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21863,6 +22461,12 @@
           <t>2-s2.0-84922618851</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>3424</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22086,6 +22690,12 @@
           <t>2-s2.0-84922667414</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>6714</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22307,6 +22917,12 @@
           <t>2-s2.0-84922659525</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>4027</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22526,6 +23142,12 @@
           <t>2-s2.0-84922534166</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>2791</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22741,6 +23363,12 @@
           <t>2-s2.0-84922678337</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1749</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22956,6 +23584,12 @@
           <t>2-s2.0-84922592342</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>5964</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23169,6 +23803,12 @@
           <t>2-s2.0-84922572753</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>9540</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23392,6 +24032,12 @@
           <t>2-s2.0-84922630879</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>11115</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23615,6 +24261,12 @@
           <t>2-s2.0-84922675108</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>4014</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23832,6 +24484,12 @@
           <t>2-s2.0-84922593252</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>9151</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24051,6 +24709,12 @@
           <t>2-s2.0-84922615547</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>5455</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24266,6 +24930,12 @@
           <t>2-s2.0-85027934924</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>9347</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24488,6 +25158,12 @@
         <is>
           <t>2-s2.0-84922653683</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>7170</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="113">
@@ -24696,6 +25372,12 @@
           <t>2-s2.0-84922639053</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>3668</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24913,6 +25595,12 @@
           <t>2-s2.0-84922586756</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>6178</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25131,6 +25819,12 @@
         <is>
           <t>2-s2.0-84922505412</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>3623</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -25338,6 +26032,12 @@
         <is>
           <t>2-s2.0-84916896795</t>
         </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>7619</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="117">
@@ -25542,6 +26242,12 @@
           <t>2-s2.0-84916942091</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>6026</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25751,6 +26457,12 @@
           <t>2-s2.0-84916884411</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>4318</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25968,6 +26680,12 @@
           <t>2-s2.0-84916939773</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>5195</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26184,6 +26902,12 @@
         <is>
           <t>2-s2.0-84916939500</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>2815</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -26392,6 +27116,12 @@
           <t>2-s2.0-84940248483</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>6183</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26606,6 +27336,12 @@
         <is>
           <t>2-s2.0-84916879462</t>
         </is>
+      </c>
+      <c r="BT122" t="n">
+        <v>7751</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="123">
@@ -26814,6 +27550,12 @@
           <t>2-s2.0-84916890126</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>7580</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27016,6 +27758,12 @@
         <is>
           <t>2-s2.0-84916939445</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>6899</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -27220,6 +27968,12 @@
           <t>2-s2.0-84916926344</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>4087</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27437,6 +28191,12 @@
           <t>2-s2.0-84916936362</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>15633</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27648,6 +28408,12 @@
           <t>2-s2.0-84916889793</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>22064</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27857,6 +28623,12 @@
           <t>2-s2.0-84916623558</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>40697</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28074,6 +28846,12 @@
           <t>2-s2.0-84916941649</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>12885</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28289,6 +29067,12 @@
           <t>2-s2.0-84916877324</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>6850</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28504,6 +29288,12 @@
           <t>2-s2.0-84916884925</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>8919</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28719,6 +29509,12 @@
           <t>2-s2.0-84916613357</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>6366</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28935,6 +29731,12 @@
         <is>
           <t>2-s2.0-84916608675</t>
         </is>
+      </c>
+      <c r="BT133" t="n">
+        <v>21712</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="134">
@@ -29144,6 +29946,12 @@
         <is>
           <t>2-s2.0-84916619913</t>
         </is>
+      </c>
+      <c r="BT134" t="n">
+        <v>3209</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -29336,6 +30144,12 @@
       <c r="BQ135" t="inlineStr"/>
       <c r="BR135" t="inlineStr"/>
       <c r="BS135" t="inlineStr"/>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29550,6 +30364,12 @@
         <is>
           <t>2-s2.0-84912150425</t>
         </is>
+      </c>
+      <c r="BT136" t="n">
+        <v>4113</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -29764,6 +30584,12 @@
           <t>2-s2.0-84912150345</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>6362</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29971,6 +30797,12 @@
           <t>2-s2.0-84912150729</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>6901</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30180,6 +31012,12 @@
           <t>2-s2.0-84912150171</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>3797</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30390,6 +31228,12 @@
         <is>
           <t>2-s2.0-84912150349</t>
         </is>
+      </c>
+      <c r="BT140" t="n">
+        <v>5758</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -30596,6 +31440,12 @@
           <t>2-s2.0-84912151095</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>16100</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30803,6 +31653,12 @@
           <t>2-s2.0-84912150494</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>3812</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31010,6 +31866,12 @@
           <t>2-s2.0-84912150739</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>6748</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31227,6 +32089,12 @@
           <t>2-s2.0-84912151055</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>4881</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31437,6 +32305,12 @@
         <is>
           <t>2-s2.0-84912151096</t>
         </is>
+      </c>
+      <c r="BT145" t="n">
+        <v>5999</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="146">
@@ -31647,6 +32521,12 @@
           <t>2-s2.0-84912151062</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>9427</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31856,6 +32736,12 @@
           <t>2-s2.0-84912151137</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>17368</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32073,6 +32959,12 @@
           <t>2-s2.0-84912150213</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>52742</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32283,6 +33175,12 @@
         <is>
           <t>2-s2.0-84912150824</t>
         </is>
+      </c>
+      <c r="BT149" t="n">
+        <v>4568</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -32493,6 +33391,12 @@
           <t>2-s2.0-84912150481</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>10208</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32700,6 +33604,12 @@
           <t>2-s2.0-84912151053</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>20174</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32916,6 +33826,12 @@
         <is>
           <t>2-s2.0-84912150034</t>
         </is>
+      </c>
+      <c r="BT152" t="n">
+        <v>5373</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="153">
@@ -33124,6 +34040,12 @@
           <t>2-s2.0-84912151082</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>4493</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33331,6 +34253,12 @@
           <t>2-s2.0-84912150451</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>5523</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33546,6 +34474,12 @@
           <t>2-s2.0-84912150660</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>7068</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
